--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB41299-7C4A-4D3A-B362-D7CA404FFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41A3FBC-3964-47F2-B2E0-FD0348FCD2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{6BF32B40-7C43-4511-ABBA-4E2939CEAF77}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{1F9283A0-9B6F-4765-80AC-84DA3D023FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39274B0E-5A77-4409-9B88-B869A175D7E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70C07AB-85D3-41A4-887F-561921F41F0C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41A3FBC-3964-47F2-B2E0-FD0348FCD2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF859E3-9F37-4A86-A186-785E3E1C4209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{1F9283A0-9B6F-4765-80AC-84DA3D023FE9}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{CDD77E54-9072-4EDA-B55C-08205367E161}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70C07AB-85D3-41A4-887F-561921F41F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D556B201-09E4-4571-9AB8-1D2F50BFE549}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
